--- a/domain5.xlsx
+++ b/domain5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1043">
   <si>
     <t>cl2.webterren.com</t>
   </si>
@@ -3079,6 +3079,75 @@
   </si>
   <si>
     <t>dnf.duowan.com</t>
+  </si>
+  <si>
+    <t>hp.proxy.yy.duowan.com</t>
+  </si>
+  <si>
+    <t>ls.duowan.com</t>
+  </si>
+  <si>
+    <t>wotbox.duowan.com</t>
+  </si>
+  <si>
+    <t>cname.duowan.com</t>
+  </si>
+  <si>
+    <t>box.dwstatic.com</t>
+  </si>
+  <si>
+    <t>weihuialert.yy.com</t>
+  </si>
+  <si>
+    <t>wuxia.duowan.com</t>
+  </si>
+  <si>
+    <t>mobpush.yy.com</t>
+  </si>
+  <si>
+    <t>thirdlogin.yy.com</t>
+  </si>
+  <si>
+    <t>wot.duowan.com</t>
+  </si>
+  <si>
+    <t>zx.duowan.com</t>
+  </si>
+  <si>
+    <t>kf.yy.com</t>
+  </si>
+  <si>
+    <t>coc.5253.com</t>
+  </si>
+  <si>
+    <t>mc.duowan.com</t>
+  </si>
+  <si>
+    <t>comfrontdl.yy.duowan.com</t>
+  </si>
+  <si>
+    <t>template.dl.yy.com</t>
+  </si>
+  <si>
+    <t>m1.dwstatic.com</t>
+  </si>
+  <si>
+    <t>多玩游戏网5</t>
+  </si>
+  <si>
+    <t>earn.yystatic.com</t>
+  </si>
+  <si>
+    <t>多玩游戏网6</t>
+  </si>
+  <si>
+    <t>weblbs.yystatic.com</t>
+  </si>
+  <si>
+    <t>2.dximscreenshot7.yy.yystatic.com</t>
+  </si>
+  <si>
+    <t>8.dximscreenshot7.yy.yystatic.com</t>
   </si>
 </sst>
 </file>
@@ -3403,10 +3472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B804"/>
+  <dimension ref="A1:B825"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A792" workbookViewId="0">
+      <selection activeCell="F808" sqref="F808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9843,6 +9912,174 @@
         <v>889</v>
       </c>
     </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B805" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B806" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B807" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B808" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B809" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B810" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B811" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B812" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B813" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B814" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B815" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B816" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B817" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B818" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B819" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B820" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1039</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
